--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_INVINV_yoy_AVERAGE_10_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_INVINV_yoy_AVERAGE_10_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,18 +417,21 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39400</v>
+        <v>39583</v>
       </c>
       <c r="B2">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D2">
-        <v>2008</v>
+        <v>2009</v>
+      </c>
+      <c r="E2">
+        <v>0.5087393606160395</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>39583</v>
+        <v>39765</v>
       </c>
       <c r="B3">
         <v>2008</v>
@@ -437,26 +440,29 @@
         <v>2009</v>
       </c>
       <c r="E3">
-        <v>-0.7258201309573775</v>
+        <v>-0.4513776153963867</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>39765</v>
+        <v>39948</v>
       </c>
       <c r="B4">
-        <v>2008</v>
+        <v>2009</v>
+      </c>
+      <c r="C4">
+        <v>-1.118515468742087</v>
       </c>
       <c r="D4">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E4">
-        <v>-0.8922816569862713</v>
+        <v>-0.6296678961043134</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>39948</v>
+        <v>40130</v>
       </c>
       <c r="B5">
         <v>2009</v>
@@ -468,29 +474,29 @@
         <v>2010</v>
       </c>
       <c r="E5">
-        <v>-0.4252238776383699</v>
+        <v>-0.8803581938132576</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>40130</v>
+        <v>40310</v>
       </c>
       <c r="B6">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C6">
-        <v>-1.324983933426882</v>
+        <v>-0.1156872058426073</v>
       </c>
       <c r="D6">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E6">
-        <v>-0.0806988647449991</v>
+        <v>-0.5120992642018263</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>40310</v>
+        <v>40494</v>
       </c>
       <c r="B7">
         <v>2010</v>
@@ -502,29 +508,29 @@
         <v>2011</v>
       </c>
       <c r="E7">
-        <v>-0.608538493861166</v>
+        <v>-1.213027585730386</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>40494</v>
+        <v>40676</v>
       </c>
       <c r="B8">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C8">
-        <v>-0.3900454704678369</v>
+        <v>-0.4084169314491404</v>
       </c>
       <c r="D8">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E8">
-        <v>-0.3552279522900159</v>
+        <v>-0.6403426624573716</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>40676</v>
+        <v>40862</v>
       </c>
       <c r="B9">
         <v>2011</v>
@@ -536,29 +542,29 @@
         <v>2012</v>
       </c>
       <c r="E9">
-        <v>-0.007565898326467035</v>
+        <v>-0.3230872999110068</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>40862</v>
+        <v>41044</v>
       </c>
       <c r="B10">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C10">
-        <v>-0.2995848153489522</v>
+        <v>-0.2188016966516937</v>
       </c>
       <c r="D10">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E10">
-        <v>-0.1826650432039445</v>
+        <v>-0.1561757764150462</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>41044</v>
+        <v>41228</v>
       </c>
       <c r="B11">
         <v>2012</v>
@@ -570,29 +576,29 @@
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>0.07493742497184375</v>
+        <v>-0.2793004163246238</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>41228</v>
+        <v>41409</v>
       </c>
       <c r="B12">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C12">
-        <v>-0.2075757021743008</v>
+        <v>0.05915234751026066</v>
       </c>
       <c r="D12">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E12">
-        <v>0.09992491247496904</v>
+        <v>0.04624521867206965</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>41409</v>
+        <v>41592</v>
       </c>
       <c r="B13">
         <v>2013</v>
@@ -604,29 +610,29 @@
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>-0.02565626552746281</v>
+        <v>-0.119752617912039</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>41592</v>
+        <v>41774</v>
       </c>
       <c r="B14">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C14">
-        <v>0.124712275190686</v>
+        <v>-0.2979029954603529</v>
       </c>
       <c r="D14">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E14">
-        <v>-0.2256049529964055</v>
+        <v>-0.1124510725819206</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>41774</v>
+        <v>41957</v>
       </c>
       <c r="B15">
         <v>2014</v>
@@ -638,29 +644,29 @@
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>0.05470007129930732</v>
+        <v>-0.05946205208092747</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>41957</v>
+        <v>42137</v>
       </c>
       <c r="B16">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C16">
-        <v>-0.255298189276465</v>
+        <v>0.07317408757452348</v>
       </c>
       <c r="D16">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E16">
-        <v>0.068498965518482</v>
+        <v>-0.002181547367274828</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>42137</v>
+        <v>42321</v>
       </c>
       <c r="B17">
         <v>2015</v>
@@ -672,29 +678,29 @@
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>-0.1118063021044113</v>
+        <v>-0.001680662521774678</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>42321</v>
+        <v>42503</v>
       </c>
       <c r="B18">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C18">
-        <v>0.07418514192796266</v>
+        <v>-0.06188089372189953</v>
       </c>
       <c r="D18">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E18">
-        <v>-0.1275185062600492</v>
+        <v>-0.07932008107318644</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>42503</v>
+        <v>42689</v>
       </c>
       <c r="B19">
         <v>2016</v>
@@ -706,29 +712,29 @@
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>-0.1441854746430216</v>
+        <v>-0.1247901924724348</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>42689</v>
+        <v>42867</v>
       </c>
       <c r="B20">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C20">
-        <v>-0.07611406013281474</v>
+        <v>-0.2199961235931358</v>
       </c>
       <c r="D20">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E20">
-        <v>-0.2221926054819634</v>
+        <v>-0.1022879117640763</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>42867</v>
+        <v>43053</v>
       </c>
       <c r="B21">
         <v>2017</v>
@@ -740,63 +746,63 @@
         <v>2018</v>
       </c>
       <c r="E21">
-        <v>0.09771527089190712</v>
+        <v>-0.05219951976568327</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>43053</v>
+        <v>43145</v>
       </c>
       <c r="B22">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C22">
-        <v>-0.191300579729714</v>
+        <v>0.0441865668729946</v>
       </c>
       <c r="D22">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E22">
-        <v>0.06531417979365184</v>
+        <v>-0.07120909843567613</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>43145</v>
+        <v>43235</v>
       </c>
       <c r="B23">
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>0.1195352120703319</v>
+        <v>0.0882025545300813</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>0.08904591254175198</v>
+        <v>-0.05573300569792217</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>43235</v>
+        <v>43326</v>
       </c>
       <c r="B24">
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>0.1141271696349921</v>
+        <v>0.1415113532986956</v>
       </c>
       <c r="D24">
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>-0.1267333805689663</v>
+        <v>0.02926805735909976</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>43326</v>
+        <v>43418</v>
       </c>
       <c r="B25">
         <v>2018</v>
@@ -808,63 +814,63 @@
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>-0.1876573326314745</v>
+        <v>-0.1345737582127748</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>43418</v>
+        <v>43510</v>
       </c>
       <c r="B26">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C26">
-        <v>0.0970330232288763</v>
+        <v>-0.5756287392657988</v>
       </c>
       <c r="D26">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E26">
-        <v>-0.7845155491406741</v>
+        <v>-0.2394607875814136</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>43510</v>
+        <v>43600</v>
       </c>
       <c r="B27">
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>-0.7781153598125479</v>
+        <v>-0.7844010209450802</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>-0.1254551401159709</v>
+        <v>-0.3786583343736716</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>43600</v>
+        <v>43691</v>
       </c>
       <c r="B28">
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>-0.7251499616078294</v>
+        <v>-0.6919146680131605</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>-0.1802771585606822</v>
+        <v>-0.244860729922769</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>43691</v>
+        <v>43783</v>
       </c>
       <c r="B29">
         <v>2019</v>
@@ -876,63 +882,63 @@
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>-0.4215048939216759</v>
+        <v>-0.4363737508290888</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>43783</v>
+        <v>43875</v>
       </c>
       <c r="B30">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C30">
-        <v>-0.7407518902333265</v>
+        <v>-0.7124953797697064</v>
       </c>
       <c r="D30">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E30">
-        <v>-0.6120620921455822</v>
+        <v>-0.4617192974095352</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>43875</v>
+        <v>43966</v>
       </c>
       <c r="B31">
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>-0.1253648379836103</v>
+        <v>-0.1808804304865297</v>
       </c>
       <c r="D31">
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>0.1494302794222913</v>
+        <v>-0.1077309791980285</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>43966</v>
+        <v>44068</v>
       </c>
       <c r="B32">
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>0.2662518592309704</v>
+        <v>0.3056679541520335</v>
       </c>
       <c r="D32">
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>-0.7718622268289566</v>
+        <v>0.3245880452514394</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>44068</v>
+        <v>44159</v>
       </c>
       <c r="B33">
         <v>2020</v>
@@ -944,63 +950,63 @@
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>0.2818044080198812</v>
+        <v>-0.514812792200714</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>44159</v>
+        <v>44251</v>
       </c>
       <c r="B34">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C34">
-        <v>0.3056679541520335</v>
+        <v>-0.8680533514735522</v>
       </c>
       <c r="D34">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E34">
-        <v>-0.05370931890721353</v>
+        <v>-0.5995895195426981</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>44251</v>
+        <v>44341</v>
       </c>
       <c r="B35">
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>-0.9737659111719199</v>
+        <v>-0.8769761459347714</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>-0.8257694986581909</v>
+        <v>-0.5354669478056073</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>44341</v>
+        <v>44432</v>
       </c>
       <c r="B36">
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>-0.798036187070017</v>
+        <v>-1.388491535160907</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>0.025374137035028</v>
+        <v>-2.541003699199929</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>44432</v>
+        <v>44525</v>
       </c>
       <c r="B37">
         <v>2021</v>
@@ -1012,63 +1018,63 @@
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>-1.193502734053931</v>
+        <v>-2.321721165370549</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>44525</v>
+        <v>44617</v>
       </c>
       <c r="B38">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C38">
-        <v>-1.388491535160907</v>
+        <v>-1.867377038014506</v>
       </c>
       <c r="D38">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E38">
-        <v>-2.110140541019756</v>
+        <v>-0.8537083312609495</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>44617</v>
+        <v>44706</v>
       </c>
       <c r="B39">
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>-1.860512579858153</v>
+        <v>-1.719168896439693</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>-0.2290505252614206</v>
+        <v>-0.5989817782328322</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>44706</v>
+        <v>44798</v>
       </c>
       <c r="B40">
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>-1.655159161221598</v>
+        <v>-1.678482969789596</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>0.1441694350656331</v>
+        <v>-0.6229862770763095</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>44798</v>
+        <v>44890</v>
       </c>
       <c r="B41">
         <v>2022</v>
@@ -1080,63 +1086,63 @@
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>0.1047262454232811</v>
+        <v>-1.107351089172237</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>44890</v>
+        <v>44981</v>
       </c>
       <c r="B42">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C42">
-        <v>-1.678482969789596</v>
+        <v>-0.9016470784766528</v>
       </c>
       <c r="D42">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E42">
-        <v>-0.4515441491209748</v>
+        <v>-1.556833564431637</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>44981</v>
+        <v>45071</v>
       </c>
       <c r="B43">
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>-0.5707406213996236</v>
+        <v>-0.6902657121583777</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>0.0732352941048342</v>
+        <v>-1.134712300966823</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45071</v>
+        <v>45163</v>
       </c>
       <c r="B44">
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>-0.5990045920093001</v>
+        <v>-0.5999457276250508</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>-0.09594573104433346</v>
+        <v>-0.7253995615808195</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45163</v>
+        <v>45254</v>
       </c>
       <c r="B45">
         <v>2023</v>
@@ -1148,63 +1154,63 @@
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>0.06001813511820053</v>
+        <v>-0.4628630633218611</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45254</v>
+        <v>45345</v>
       </c>
       <c r="B46">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C46">
-        <v>-0.5999457276250508</v>
+        <v>-0.101315145211045</v>
       </c>
       <c r="D46">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E46">
-        <v>-0.0412020681479941</v>
+        <v>-0.1859728711464226</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45345</v>
+        <v>45436</v>
       </c>
       <c r="B47">
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>-0.03960232994498769</v>
+        <v>-0.07874066250703748</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>0.07100632971737131</v>
+        <v>-0.1533081888441812</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45436</v>
+        <v>45534</v>
       </c>
       <c r="B48">
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>-0.06180454587446649</v>
+        <v>-0.05499271238530445</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>-0.08108884376691883</v>
+        <v>-0.1365897193907339</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45534</v>
+        <v>45618</v>
       </c>
       <c r="B49">
         <v>2024</v>
@@ -1216,75 +1222,58 @@
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>0.02553660812301128</v>
+        <v>-0.01934819856548309</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45618</v>
+        <v>45713</v>
       </c>
       <c r="B50">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C50">
-        <v>-0.05499271238530445</v>
+        <v>0.4236015715998187</v>
       </c>
       <c r="D50">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="E50">
-        <v>0.09051274179980862</v>
+        <v>0.05974827491124213</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45713</v>
+        <v>45800</v>
       </c>
       <c r="B51">
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>0.4705817098730858</v>
+        <v>0.4305325812036687</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>0.2383054438446441</v>
+        <v>0.2136583044595852</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45800</v>
+        <v>45891</v>
       </c>
       <c r="B52">
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>0.4327853568336204</v>
+        <v>0.4335297397760618</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>0.2080746432969294</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="2">
-        <v>45891</v>
-      </c>
-      <c r="B53">
-        <v>2025</v>
-      </c>
-      <c r="C53">
-        <v>0.4335297397760618</v>
-      </c>
-      <c r="D53">
-        <v>2026</v>
-      </c>
-      <c r="E53">
-        <v>0.216636701550188</v>
+        <v>0.2794570629465865</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_INVINV_yoy_AVERAGE_10_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_INVINV_yoy_AVERAGE_10_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,863 +417,886 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39583</v>
+        <v>39400</v>
       </c>
       <c r="B2">
+        <v>2007</v>
+      </c>
+      <c r="C2">
+        <v>-0.7015558851707349</v>
+      </c>
+      <c r="D2">
         <v>2008</v>
       </c>
-      <c r="D2">
-        <v>2009</v>
-      </c>
       <c r="E2">
-        <v>0.5087393606160395</v>
+        <v>0.3143490788445336</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>39765</v>
+        <v>39583</v>
       </c>
       <c r="B3">
         <v>2008</v>
       </c>
+      <c r="C3">
+        <v>0.7771450785698075</v>
+      </c>
       <c r="D3">
         <v>2009</v>
       </c>
       <c r="E3">
-        <v>-0.4513776153963867</v>
+        <v>0.4748521911469794</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>39948</v>
+        <v>39765</v>
       </c>
       <c r="B4">
+        <v>2008</v>
+      </c>
+      <c r="C4">
+        <v>0.3590181115727287</v>
+      </c>
+      <c r="D4">
         <v>2009</v>
       </c>
-      <c r="C4">
-        <v>-1.118515468742087</v>
-      </c>
-      <c r="D4">
-        <v>2010</v>
-      </c>
       <c r="E4">
-        <v>-0.6296678961043134</v>
+        <v>0.6970543652217165</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>40130</v>
+        <v>39948</v>
       </c>
       <c r="B5">
         <v>2009</v>
       </c>
       <c r="C5">
-        <v>-1.324983933426882</v>
+        <v>0.9995687521967556</v>
       </c>
       <c r="D5">
         <v>2010</v>
       </c>
       <c r="E5">
-        <v>-0.8803581938132576</v>
+        <v>0.02446583860156171</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>40310</v>
+        <v>40130</v>
       </c>
       <c r="B6">
+        <v>2009</v>
+      </c>
+      <c r="C6">
+        <v>-0.01587181126743165</v>
+      </c>
+      <c r="D6">
         <v>2010</v>
       </c>
-      <c r="C6">
-        <v>-0.1156872058426073</v>
-      </c>
-      <c r="D6">
-        <v>2011</v>
-      </c>
       <c r="E6">
-        <v>-0.5120992642018263</v>
+        <v>-0.1225239755399454</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>40494</v>
+        <v>40310</v>
       </c>
       <c r="B7">
         <v>2010</v>
       </c>
       <c r="C7">
-        <v>-0.3900454704678369</v>
+        <v>0.5978820435291077</v>
       </c>
       <c r="D7">
         <v>2011</v>
       </c>
       <c r="E7">
-        <v>-1.213027585730386</v>
+        <v>0.7697980859487474</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>40676</v>
+        <v>40494</v>
       </c>
       <c r="B8">
+        <v>2010</v>
+      </c>
+      <c r="C8">
+        <v>-0.02256889165885845</v>
+      </c>
+      <c r="D8">
         <v>2011</v>
       </c>
-      <c r="C8">
-        <v>-0.4084169314491404</v>
-      </c>
-      <c r="D8">
-        <v>2012</v>
-      </c>
       <c r="E8">
-        <v>-0.6403426624573716</v>
+        <v>-0.02753509623226735</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>40862</v>
+        <v>40676</v>
       </c>
       <c r="B9">
         <v>2011</v>
       </c>
       <c r="C9">
-        <v>-0.2995848153489522</v>
+        <v>-0.5061359875450311</v>
       </c>
       <c r="D9">
         <v>2012</v>
       </c>
       <c r="E9">
-        <v>-0.3230872999110068</v>
+        <v>-0.362324052998142</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>41044</v>
+        <v>40862</v>
       </c>
       <c r="B10">
+        <v>2011</v>
+      </c>
+      <c r="C10">
+        <v>0.09611428386597787</v>
+      </c>
+      <c r="D10">
         <v>2012</v>
       </c>
-      <c r="C10">
-        <v>-0.2188016966516937</v>
-      </c>
-      <c r="D10">
-        <v>2013</v>
-      </c>
       <c r="E10">
-        <v>-0.1561757764150462</v>
+        <v>-0.2256894584805158</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>41228</v>
+        <v>41044</v>
       </c>
       <c r="B11">
         <v>2012</v>
       </c>
       <c r="C11">
-        <v>-0.2075757021743008</v>
+        <v>-0.2706540469742502</v>
       </c>
       <c r="D11">
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>-0.2793004163246238</v>
+        <v>-0.06282556559906727</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>41409</v>
+        <v>41228</v>
       </c>
       <c r="B12">
+        <v>2012</v>
+      </c>
+      <c r="C12">
+        <v>-0.1827723404408288</v>
+      </c>
+      <c r="D12">
         <v>2013</v>
       </c>
-      <c r="C12">
-        <v>0.05915234751026066</v>
-      </c>
-      <c r="D12">
-        <v>2014</v>
-      </c>
       <c r="E12">
-        <v>0.04624521867206965</v>
+        <v>-0.2251688766575</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>41592</v>
+        <v>41409</v>
       </c>
       <c r="B13">
         <v>2013</v>
       </c>
       <c r="C13">
-        <v>0.124712275190686</v>
+        <v>0.006024133679316535</v>
       </c>
       <c r="D13">
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>-0.119752617912039</v>
+        <v>0.01247916696665019</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>41774</v>
+        <v>41592</v>
       </c>
       <c r="B14">
+        <v>2013</v>
+      </c>
+      <c r="C14">
+        <v>-0.001350220946483294</v>
+      </c>
+      <c r="D14">
         <v>2014</v>
       </c>
-      <c r="C14">
-        <v>-0.2979029954603529</v>
-      </c>
-      <c r="D14">
-        <v>2015</v>
-      </c>
       <c r="E14">
-        <v>-0.1124510725819206</v>
+        <v>0.1494097328869959</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>41957</v>
+        <v>41774</v>
       </c>
       <c r="B15">
         <v>2014</v>
       </c>
       <c r="C15">
-        <v>-0.255298189276465</v>
+        <v>0.3981709080043139</v>
       </c>
       <c r="D15">
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>-0.05946205208092747</v>
+        <v>0.1740860482467133</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>42137</v>
+        <v>41957</v>
       </c>
       <c r="B16">
+        <v>2014</v>
+      </c>
+      <c r="C16">
+        <v>-0.075754880139145</v>
+      </c>
+      <c r="D16">
         <v>2015</v>
       </c>
-      <c r="C16">
-        <v>0.07317408757452348</v>
-      </c>
-      <c r="D16">
-        <v>2016</v>
-      </c>
       <c r="E16">
-        <v>-0.002181547367274828</v>
+        <v>-0.5497151367044428</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>42321</v>
+        <v>42137</v>
       </c>
       <c r="B17">
         <v>2015</v>
       </c>
       <c r="C17">
-        <v>0.07418514192796266</v>
+        <v>-0.2945738319855118</v>
       </c>
       <c r="D17">
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>-0.001680662521774678</v>
+        <v>-0.03768624985649449</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>42503</v>
+        <v>42321</v>
       </c>
       <c r="B18">
+        <v>2015</v>
+      </c>
+      <c r="C18">
+        <v>-0.5761528471665445</v>
+      </c>
+      <c r="D18">
         <v>2016</v>
       </c>
-      <c r="C18">
-        <v>-0.06188089372189953</v>
-      </c>
-      <c r="D18">
-        <v>2017</v>
-      </c>
       <c r="E18">
-        <v>-0.07932008107318644</v>
+        <v>-0.1255150964614482</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>42689</v>
+        <v>42503</v>
       </c>
       <c r="B19">
         <v>2016</v>
       </c>
       <c r="C19">
-        <v>-0.07611406013281474</v>
+        <v>-0.03047919532177534</v>
       </c>
       <c r="D19">
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>-0.1247901924724348</v>
+        <v>-0.1249617237519152</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>42867</v>
+        <v>42689</v>
       </c>
       <c r="B20">
+        <v>2016</v>
+      </c>
+      <c r="C20">
+        <v>-0.2011999787958185</v>
+      </c>
+      <c r="D20">
         <v>2017</v>
       </c>
-      <c r="C20">
-        <v>-0.2199961235931358</v>
-      </c>
-      <c r="D20">
-        <v>2018</v>
-      </c>
       <c r="E20">
-        <v>-0.1022879117640763</v>
+        <v>-0.3746351385105373</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>43053</v>
+        <v>42867</v>
       </c>
       <c r="B21">
         <v>2017</v>
       </c>
       <c r="C21">
-        <v>-0.191300579729714</v>
+        <v>0.1932702877606385</v>
       </c>
       <c r="D21">
         <v>2018</v>
       </c>
       <c r="E21">
-        <v>-0.05219951976568327</v>
+        <v>-0.250093582508859</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>43145</v>
+        <v>43053</v>
       </c>
       <c r="B22">
+        <v>2017</v>
+      </c>
+      <c r="C22">
+        <v>0.1213692818849532</v>
+      </c>
+      <c r="D22">
         <v>2018</v>
       </c>
-      <c r="C22">
-        <v>0.0441865668729946</v>
-      </c>
-      <c r="D22">
-        <v>2019</v>
-      </c>
       <c r="E22">
-        <v>-0.07120909843567613</v>
+        <v>0.1731436979489631</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>43235</v>
+        <v>43145</v>
       </c>
       <c r="B23">
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>0.0882025545300813</v>
+        <v>0.2738179272064434</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>-0.05573300569792217</v>
+        <v>0.2001500500062425</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>43326</v>
+        <v>43235</v>
       </c>
       <c r="B24">
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>0.1415113532986956</v>
+        <v>-0.1256133802673975</v>
       </c>
       <c r="D24">
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>0.02926805735909976</v>
+        <v>-0.02501876407304815</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>43418</v>
+        <v>43326</v>
       </c>
       <c r="B25">
         <v>2018</v>
       </c>
       <c r="C25">
-        <v>0.0970330232288763</v>
+        <v>0.08160407806372394</v>
       </c>
       <c r="D25">
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>-0.1345737582127748</v>
+        <v>0.2722769713627837</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>43510</v>
+        <v>43418</v>
       </c>
       <c r="B26">
+        <v>2018</v>
+      </c>
+      <c r="C26">
+        <v>0.1493219406571766</v>
+      </c>
+      <c r="D26">
         <v>2019</v>
       </c>
-      <c r="C26">
-        <v>-0.5756287392657988</v>
-      </c>
-      <c r="D26">
-        <v>2020</v>
-      </c>
       <c r="E26">
-        <v>-0.2394607875814136</v>
+        <v>0.9013851022877439</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>43600</v>
+        <v>43510</v>
       </c>
       <c r="B27">
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>-0.7844010209450802</v>
+        <v>0.2799548089016612</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>-0.3786583343736716</v>
+        <v>0.3604862916655627</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>43691</v>
+        <v>43600</v>
       </c>
       <c r="B28">
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>-0.6919146680131605</v>
+        <v>-0.2736870064301455</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>-0.244860729922769</v>
+        <v>-0.11321783823105</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>43783</v>
+        <v>43691</v>
       </c>
       <c r="B29">
         <v>2019</v>
       </c>
       <c r="C29">
-        <v>-0.7407518902333265</v>
+        <v>-0.2916219766884276</v>
       </c>
       <c r="D29">
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>-0.4363737508290888</v>
+        <v>-0.2643564666883758</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>43875</v>
+        <v>43783</v>
       </c>
       <c r="B30">
+        <v>2019</v>
+      </c>
+      <c r="C30">
+        <v>-0.4278219446121612</v>
+      </c>
+      <c r="D30">
         <v>2020</v>
       </c>
-      <c r="C30">
-        <v>-0.7124953797697064</v>
-      </c>
-      <c r="D30">
-        <v>2021</v>
-      </c>
       <c r="E30">
-        <v>-0.4617192974095352</v>
+        <v>-0.8258413506386342</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>43966</v>
+        <v>43875</v>
       </c>
       <c r="B31">
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>-0.1808804304865297</v>
+        <v>-0.3225448117294083</v>
       </c>
       <c r="D31">
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>-0.1077309791980285</v>
+        <v>-0.2397840863870626</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>44068</v>
+        <v>43966</v>
       </c>
       <c r="B32">
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>0.3056679541520335</v>
+        <v>-0.2932081122163033</v>
       </c>
       <c r="D32">
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>0.3245880452514394</v>
+        <v>-0.1126446518617819</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>44159</v>
+        <v>44068</v>
       </c>
       <c r="B33">
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>0.3056679541520335</v>
+        <v>-0.4412356890029168</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>-0.514812792200714</v>
+        <v>-0.3695048299469872</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>44251</v>
+        <v>44159</v>
       </c>
       <c r="B34">
+        <v>2020</v>
+      </c>
+      <c r="C34">
+        <v>-1.026566979837418</v>
+      </c>
+      <c r="D34">
         <v>2021</v>
       </c>
-      <c r="C34">
-        <v>-0.8680533514735522</v>
-      </c>
-      <c r="D34">
-        <v>2022</v>
-      </c>
       <c r="E34">
-        <v>-0.5995895195426981</v>
+        <v>-2.816143384276215</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>44341</v>
+        <v>44251</v>
       </c>
       <c r="B35">
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>-0.8769761459347714</v>
+        <v>-0.7059330669460406</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>-0.5354669478056073</v>
+        <v>-1.039648953489214</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>44432</v>
+        <v>44341</v>
       </c>
       <c r="B36">
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>-1.388491535160907</v>
+        <v>-0.03584227163500042</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>-2.541003699199929</v>
+        <v>-0.1719585843969917</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>44525</v>
+        <v>44432</v>
       </c>
       <c r="B37">
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>-1.388491535160907</v>
+        <v>-0.04976849661378902</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>-2.321721165370549</v>
+        <v>-1.608095448141689</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>44617</v>
+        <v>44525</v>
       </c>
       <c r="B38">
+        <v>2021</v>
+      </c>
+      <c r="C38">
+        <v>0.3179894933462268</v>
+      </c>
+      <c r="D38">
         <v>2022</v>
       </c>
-      <c r="C38">
-        <v>-1.867377038014506</v>
-      </c>
-      <c r="D38">
-        <v>2023</v>
-      </c>
       <c r="E38">
-        <v>-0.8537083312609495</v>
+        <v>0.07011423530434158</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>44706</v>
+        <v>44617</v>
       </c>
       <c r="B39">
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>-1.719168896439693</v>
+        <v>0.5748854066360609</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>-0.5989817782328322</v>
+        <v>0.35467759793264</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>44798</v>
+        <v>44706</v>
       </c>
       <c r="B40">
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>-1.678482969789596</v>
+        <v>1.323454226677478</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>-0.6229862770763095</v>
+        <v>0.7858329241748896</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>44890</v>
+        <v>44798</v>
       </c>
       <c r="B41">
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>-1.678482969789596</v>
+        <v>0.4784173072842179</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>-1.107351089172237</v>
+        <v>0.1043052025668345</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>44981</v>
+        <v>44890</v>
       </c>
       <c r="B42">
+        <v>2022</v>
+      </c>
+      <c r="C42">
+        <v>0.463604920919658</v>
+      </c>
+      <c r="D42">
         <v>2023</v>
       </c>
-      <c r="C42">
-        <v>-0.9016470784766528</v>
-      </c>
-      <c r="D42">
-        <v>2024</v>
-      </c>
       <c r="E42">
-        <v>-1.556833564431637</v>
+        <v>-0.3203420516749933</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45071</v>
+        <v>44981</v>
       </c>
       <c r="B43">
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>-0.6902657121583777</v>
+        <v>0.6932214722757513</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>-1.134712300966823</v>
+        <v>0.9777431256012825</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45163</v>
+        <v>45071</v>
       </c>
       <c r="B44">
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>-0.5999457276250508</v>
+        <v>0.8831924739260089</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>-0.7253995615808195</v>
+        <v>0.8355283619122744</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45254</v>
+        <v>45163</v>
       </c>
       <c r="B45">
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>-0.5999457276250508</v>
+        <v>0.4279153732809959</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>-0.4628630633218611</v>
+        <v>0.02757741937535751</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45345</v>
+        <v>45254</v>
       </c>
       <c r="B46">
+        <v>2023</v>
+      </c>
+      <c r="C46">
+        <v>0.621639092134818</v>
+      </c>
+      <c r="D46">
         <v>2024</v>
       </c>
-      <c r="C46">
-        <v>-0.101315145211045</v>
-      </c>
-      <c r="D46">
-        <v>2025</v>
-      </c>
       <c r="E46">
-        <v>-0.1859728711464226</v>
+        <v>0.009137938461889483</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45436</v>
+        <v>45345</v>
       </c>
       <c r="B47">
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>-0.07874066250703748</v>
+        <v>-0.3894584472036278</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>-0.1533081888441812</v>
+        <v>0.1876441418131369</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45534</v>
+        <v>45436</v>
       </c>
       <c r="B48">
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>-0.05499271238530445</v>
+        <v>-1.081515348061801</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>-0.1365897193907339</v>
+        <v>-0.07003400812273242</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45618</v>
+        <v>45534</v>
       </c>
       <c r="B49">
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>-0.05499271238530445</v>
+        <v>-0.9378224616154895</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>-0.01934819856548309</v>
+        <v>0.3237070386496343</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45713</v>
+        <v>45618</v>
       </c>
       <c r="B50">
+        <v>2024</v>
+      </c>
+      <c r="C50">
+        <v>-0.6768900623516982</v>
+      </c>
+      <c r="D50">
         <v>2025</v>
       </c>
-      <c r="C50">
-        <v>0.4236015715998187</v>
-      </c>
-      <c r="D50">
-        <v>2026</v>
-      </c>
       <c r="E50">
-        <v>0.05974827491124213</v>
+        <v>0.9453792747973422</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45800</v>
+        <v>45713</v>
       </c>
       <c r="B51">
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>0.4305325812036687</v>
+        <v>1.909988706581967</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>0.2136583044595852</v>
+        <v>0.5955700148392751</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45891</v>
+        <v>45800</v>
       </c>
       <c r="B52">
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>0.4335297397760618</v>
+        <v>0.4626514211933497</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>0.2794570629465865</v>
+        <v>-0.4747835872719319</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2">
+        <v>45891</v>
+      </c>
+      <c r="B53">
+        <v>2025</v>
+      </c>
+      <c r="C53">
+        <v>1.136769786738334</v>
+      </c>
+      <c r="D53">
+        <v>2026</v>
+      </c>
+      <c r="E53">
+        <v>0.294850926654866</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_INVINV_yoy_AVERAGE_10_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_INVINV_yoy_AVERAGE_10_9_full.xlsx
@@ -950,13 +950,13 @@
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-0.4412356890029168</v>
+        <v>-0.340404387749782</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>-0.3695048299469872</v>
+        <v>0.01966269405899723</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -973,7 +973,7 @@
         <v>2021</v>
       </c>
       <c r="E34">
-        <v>-2.816143384276215</v>
+        <v>-2.21975419279502</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -984,13 +984,13 @@
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>-0.7059330669460406</v>
+        <v>-0.3531291425579064</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>-1.039648953489214</v>
+        <v>-0.5986513494937173</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1001,13 +1001,13 @@
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>-0.03584227163500042</v>
+        <v>-0.0218774729098592</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>-0.1719585843969917</v>
+        <v>-0.1415666278731798</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1018,13 +1018,13 @@
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>-0.04976849661378902</v>
+        <v>0.4826836672569224</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>-1.608095448141689</v>
+        <v>0.3225189437850551</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1041,7 +1041,7 @@
         <v>2022</v>
       </c>
       <c r="E38">
-        <v>0.07011423530434158</v>
+        <v>0.1159637930800761</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1052,13 +1052,13 @@
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>0.5748854066360609</v>
+        <v>0.2560024174859121</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>0.35467759793264</v>
+        <v>-0.1599040255974238</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1069,13 +1069,13 @@
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>1.323454226677478</v>
+        <v>1.397247299320514</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>0.7858329241748896</v>
+        <v>0.9379151023483967</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1086,13 +1086,13 @@
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>0.4784173072842179</v>
+        <v>0.4999563876187718</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>0.1043052025668345</v>
+        <v>0.2051132676207601</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1109,7 +1109,7 @@
         <v>2023</v>
       </c>
       <c r="E42">
-        <v>-0.3203420516749933</v>
+        <v>0.2986939435938751</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1120,13 +1120,13 @@
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>0.6932214722757513</v>
+        <v>0.7761441975947525</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>0.9777431256012825</v>
+        <v>0.4006004000999708</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1137,13 +1137,13 @@
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>0.8831924739260089</v>
+        <v>1.060165556740755</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>0.8355283619122744</v>
+        <v>1.167736572641509</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1154,13 +1154,13 @@
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>0.4279153732809959</v>
+        <v>0.4758192390115212</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>0.02757741937535751</v>
+        <v>0.7154125493561203</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1177,7 +1177,7 @@
         <v>2024</v>
       </c>
       <c r="E46">
-        <v>0.009137938461889483</v>
+        <v>-0.0776179936130883</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1188,13 +1188,13 @@
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>-0.3894584472036278</v>
+        <v>-0.3371636084037122</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>0.1876441418131369</v>
+        <v>0.2402160864129366</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1205,13 +1205,13 @@
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>-1.081515348061801</v>
+        <v>-1.073387923554092</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>-0.07003400812273242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1222,13 +1222,13 @@
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>-0.9378224616154895</v>
+        <v>-0.9474469367775296</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>0.3237070386496343</v>
+        <v>0.2071386822988686</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1245,7 +1245,7 @@
         <v>2025</v>
       </c>
       <c r="E50">
-        <v>0.9453792747973422</v>
+        <v>1.127220362309433</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1256,13 +1256,13 @@
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>1.909988706581967</v>
+        <v>1.606298773444426</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>0.5955700148392751</v>
+        <v>0.4006004000999486</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1273,13 +1273,13 @@
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>0.4626514211933497</v>
+        <v>0.4713506786523602</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>-0.4747835872719319</v>
+        <v>-0.3387762121622728</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1290,13 +1290,13 @@
         <v>2025</v>
       </c>
       <c r="C53">
-        <v>1.136769786738334</v>
+        <v>1.132847588656261</v>
       </c>
       <c r="D53">
         <v>2026</v>
       </c>
       <c r="E53">
-        <v>0.294850926654866</v>
+        <v>0.2467479214459889</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_INVINV_yoy_AVERAGE_10_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_INVINV_yoy_AVERAGE_10_9_full.xlsx
@@ -422,14 +422,8 @@
       <c r="B2">
         <v>2007</v>
       </c>
-      <c r="C2">
-        <v>-0.7015558851707349</v>
-      </c>
       <c r="D2">
         <v>2008</v>
-      </c>
-      <c r="E2">
-        <v>0.3143490788445336</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -439,14 +433,11 @@
       <c r="B3">
         <v>2008</v>
       </c>
-      <c r="C3">
-        <v>0.7771450785698075</v>
-      </c>
       <c r="D3">
         <v>2009</v>
       </c>
       <c r="E3">
-        <v>0.4748521911469794</v>
+        <v>0.4748521911469572</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -456,14 +447,11 @@
       <c r="B4">
         <v>2008</v>
       </c>
-      <c r="C4">
-        <v>0.3590181115727287</v>
-      </c>
       <c r="D4">
         <v>2009</v>
       </c>
       <c r="E4">
-        <v>0.6970543652217165</v>
+        <v>0.6970543652217387</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -491,7 +479,7 @@
         <v>2009</v>
       </c>
       <c r="C6">
-        <v>-0.01587181126743165</v>
+        <v>-0.01587181126745385</v>
       </c>
       <c r="D6">
         <v>2010</v>
@@ -508,7 +496,7 @@
         <v>2010</v>
       </c>
       <c r="C7">
-        <v>0.5978820435291077</v>
+        <v>0.5978820435290855</v>
       </c>
       <c r="D7">
         <v>2011</v>
@@ -525,13 +513,13 @@
         <v>2010</v>
       </c>
       <c r="C8">
-        <v>-0.02256889165885845</v>
+        <v>-0.02256889165886955</v>
       </c>
       <c r="D8">
         <v>2011</v>
       </c>
       <c r="E8">
-        <v>-0.02753509623226735</v>
+        <v>-0.02753509623224515</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -542,7 +530,7 @@
         <v>2011</v>
       </c>
       <c r="C9">
-        <v>-0.5061359875450311</v>
+        <v>-0.50613598754502</v>
       </c>
       <c r="D9">
         <v>2012</v>
@@ -559,7 +547,7 @@
         <v>2011</v>
       </c>
       <c r="C10">
-        <v>0.09611428386597787</v>
+        <v>0.09611428386595566</v>
       </c>
       <c r="D10">
         <v>2012</v>
@@ -576,7 +564,7 @@
         <v>2012</v>
       </c>
       <c r="C11">
-        <v>-0.2706540469742502</v>
+        <v>-0.2706540469742613</v>
       </c>
       <c r="D11">
         <v>2013</v>
@@ -599,7 +587,7 @@
         <v>2013</v>
       </c>
       <c r="E12">
-        <v>-0.2251688766575</v>
+        <v>-0.2251688766574889</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -616,7 +604,7 @@
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>0.01247916696665019</v>
+        <v>0.01247916696662799</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -627,7 +615,7 @@
         <v>2013</v>
       </c>
       <c r="C14">
-        <v>-0.001350220946483294</v>
+        <v>-0.001350220946472191</v>
       </c>
       <c r="D14">
         <v>2014</v>
@@ -650,7 +638,7 @@
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>0.1740860482467133</v>
+        <v>0.174086048246691</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -684,7 +672,7 @@
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>-0.03768624985649449</v>
+        <v>-0.03768624985648339</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -695,7 +683,7 @@
         <v>2015</v>
       </c>
       <c r="C18">
-        <v>-0.5761528471665445</v>
+        <v>-0.5761528471665334</v>
       </c>
       <c r="D18">
         <v>2016</v>
@@ -712,13 +700,13 @@
         <v>2016</v>
       </c>
       <c r="C19">
-        <v>-0.03047919532177534</v>
+        <v>-0.03047919532178645</v>
       </c>
       <c r="D19">
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>-0.1249617237519152</v>
+        <v>-0.1249617237519041</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -746,13 +734,13 @@
         <v>2017</v>
       </c>
       <c r="C21">
-        <v>0.1932702877606385</v>
+        <v>0.1932702877606163</v>
       </c>
       <c r="D21">
         <v>2018</v>
       </c>
       <c r="E21">
-        <v>-0.250093582508859</v>
+        <v>-0.2500935825088479</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -786,7 +774,7 @@
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>0.2001500500062425</v>
+        <v>0.2001500500062203</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -848,13 +836,13 @@
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>0.2799548089016612</v>
+        <v>0.2799548089016834</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>0.3604862916655627</v>
+        <v>0.3604862916655849</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -882,7 +870,7 @@
         <v>2019</v>
       </c>
       <c r="C29">
-        <v>-0.2916219766884276</v>
+        <v>-0.2916219766884165</v>
       </c>
       <c r="D29">
         <v>2020</v>
@@ -899,7 +887,7 @@
         <v>2019</v>
       </c>
       <c r="C30">
-        <v>-0.4278219446121612</v>
+        <v>-0.4278219446121501</v>
       </c>
       <c r="D30">
         <v>2020</v>
@@ -933,13 +921,13 @@
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>-0.2932081122163033</v>
+        <v>-0.2932081122163255</v>
       </c>
       <c r="D32">
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>-0.1126446518617819</v>
+        <v>-0.112644651861793</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -950,13 +938,13 @@
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-0.340404387749782</v>
+        <v>-0.3404043877497931</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>0.01966269405899723</v>
+        <v>0.01966269405897503</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -967,7 +955,7 @@
         <v>2020</v>
       </c>
       <c r="C34">
-        <v>-1.026566979837418</v>
+        <v>-1.026566979837429</v>
       </c>
       <c r="D34">
         <v>2021</v>
@@ -990,7 +978,7 @@
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>-0.5986513494937173</v>
+        <v>-0.5986513494937395</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1001,13 +989,13 @@
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>-0.0218774729098592</v>
+        <v>-0.02187747290984809</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>-0.1415666278731798</v>
+        <v>-0.1415666278731686</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1075,7 +1063,7 @@
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>0.9379151023483967</v>
+        <v>0.9379151023484189</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1103,13 +1091,13 @@
         <v>2022</v>
       </c>
       <c r="C42">
-        <v>0.463604920919658</v>
+        <v>0.4636049209196802</v>
       </c>
       <c r="D42">
         <v>2023</v>
       </c>
       <c r="E42">
-        <v>0.2986939435938751</v>
+        <v>0.2986939435938973</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1126,7 +1114,7 @@
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>0.4006004000999708</v>
+        <v>0.4006004000999486</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1171,13 +1159,13 @@
         <v>2023</v>
       </c>
       <c r="C46">
-        <v>0.621639092134818</v>
+        <v>0.6216390921348403</v>
       </c>
       <c r="D46">
         <v>2024</v>
       </c>
       <c r="E46">
-        <v>-0.0776179936130883</v>
+        <v>-0.0776179936130994</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1188,7 +1176,7 @@
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>-0.3371636084037122</v>
+        <v>-0.3371636084037011</v>
       </c>
       <c r="D47">
         <v>2025</v>
@@ -1239,7 +1227,7 @@
         <v>2024</v>
       </c>
       <c r="C50">
-        <v>-0.6768900623516982</v>
+        <v>-0.6768900623516871</v>
       </c>
       <c r="D50">
         <v>2025</v>
@@ -1279,7 +1267,7 @@
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>-0.3387762121622728</v>
+        <v>-0.338776212162295</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1290,13 +1278,13 @@
         <v>2025</v>
       </c>
       <c r="C53">
-        <v>1.132847588656261</v>
+        <v>1.132847588656238</v>
       </c>
       <c r="D53">
         <v>2026</v>
       </c>
       <c r="E53">
-        <v>0.2467479214459889</v>
+        <v>0.2467479214459667</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_INVINV_yoy_AVERAGE_10_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_INVINV_yoy_AVERAGE_10_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1287,6 +1287,23 @@
         <v>0.2467479214459667</v>
       </c>
     </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2">
+        <v>45986</v>
+      </c>
+      <c r="B54">
+        <v>2025</v>
+      </c>
+      <c r="C54">
+        <v>1.049317648994741</v>
+      </c>
+      <c r="D54">
+        <v>2026</v>
+      </c>
+      <c r="E54">
+        <v>0.3243937446859801</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
